--- a/Vehicle_Default_Loan_Prediction_Project/data/Data Dictionary.xlsx
+++ b/Vehicle_Default_Loan_Prediction_Project/data/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Lexar/DataScience/Vehicle_Default_Loan_Prediction_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BAFA8-0FB2-914A-9052-96CD279AE42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8C724-47EC-FA4D-8ECB-859F2F4445E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,7 +307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,15 +345,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,7 +650,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -650,7 +658,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -658,7 +666,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -666,7 +674,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -674,7 +682,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -682,7 +690,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -690,7 +698,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -698,7 +706,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -706,7 +714,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -714,7 +722,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -722,7 +730,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -730,7 +738,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -738,7 +746,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -746,7 +754,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -754,7 +762,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -762,7 +770,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -770,7 +778,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -778,7 +786,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -786,7 +794,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -794,7 +802,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -802,7 +810,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -810,7 +818,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -818,7 +826,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -826,119 +834,119 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -946,7 +954,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -954,7 +962,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -962,7 +970,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -970,7 +978,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -978,7 +986,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -986,7 +994,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">

--- a/Vehicle_Default_Loan_Prediction_Project/data/Data Dictionary.xlsx
+++ b/Vehicle_Default_Loan_Prediction_Project/data/Data Dictionary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Lexar/DataScience/Vehicle_Default_Loan_Prediction_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8C724-47EC-FA4D-8ECB-859F2F4445E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE0373-4BE8-B643-9F17-2F0EF184DA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Logistic" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ltv</t>
   </si>
@@ -271,6 +272,42 @@
   </si>
   <si>
     <t>New loans taken by the customer in last 6 months before the disbursment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'PERFORM_CNS_DESC_Very high'</t>
+  </si>
+  <si>
+    <t>'ASSET_COST'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PRI_NO_OF_ACCTS'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PRI_OVERDUE_ACCTS'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'PRI_DISBURSED_AMOUNT'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'DELINQUENT_ACCTS_IN_LAST_SIX_MONTHS'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'NO_OF_INQUIRIES'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'LOANEE_DOB_DAYS'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CREDIT_HISTORY_LENGTH_DAYS'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       'LTA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'EMPLOYMENT_TYPE_Self employed'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PERFORM_CNS_DESC_Low'</t>
   </si>
 </sst>
 </file>
@@ -286,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +351,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,17 +394,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A42" sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -666,7 +724,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -690,7 +748,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -818,7 +876,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -840,7 +898,7 @@
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -851,7 +909,7 @@
       <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -860,7 +918,7 @@
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -869,7 +927,7 @@
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -878,7 +936,7 @@
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
@@ -887,7 +945,7 @@
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -896,7 +954,7 @@
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -907,7 +965,7 @@
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -916,7 +974,7 @@
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -925,7 +983,7 @@
       <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -934,7 +992,7 @@
       <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -943,7 +1001,7 @@
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -1008,4 +1066,201 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD9CF81-4F64-7A44-B85B-F6DBDA8A744A}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>